--- a/biology/Neurosciences/Dégénérescence_wallérienne/Dégénérescence_wallérienne.xlsx
+++ b/biology/Neurosciences/Dégénérescence_wallérienne/Dégénérescence_wallérienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9g%C3%A9n%C3%A9rescence_wall%C3%A9rienne</t>
+          <t>Dégénérescence_wallérienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'une fibre nerveuse est sectionnée ou écrasée, la partie distale à la lésion (c’est-à-dire la portion de l'axone séparée du corps cellulaire contenant le noyau) va dégénérer selon un processus appelé dégénérescence wallérienne.
 Les axones et leurs gaines de myéline sont digérés par les macrophages et les cellules de Schwann. Il en résulte une atrophie des fibres musculaires cibles du nerf lésé.
